--- a/Requirements_table.xlsx
+++ b/Requirements_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27980" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>Non-Functional</t>
   </si>
@@ -103,18 +103,116 @@
   </si>
   <si>
     <t xml:space="preserve">Uberchat server shall have a 3,000 character buffer </t>
+  </si>
+  <si>
+    <t>Uberchat shall store strings in the buffer using the following format: &lt;UUID (of original sender)&gt; &lt;SPACE&gt; &lt;TEXT (in form of string)&gt;</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "REQUSERS" that will trigger the server to send, via TCP, a list of all UUID and the nicks attached to them within the chatroom. This may be an empty list.</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "JOINCHATROOM" which will trigger the server to store all subsequent charaters, up until the terminating character, and compare the stored string to the list of available chatrooms.</t>
+  </si>
+  <si>
+    <t>Uberchat server shall link the client who requested the "JOINCHATROOM" command to the requested chatroom, if there is a match between the stored string and a chatroom name within the availabale chatroom list.</t>
+  </si>
+  <si>
+    <t>Uberchat shall echo back to the client who requested the "JOINCHATROOM" command, the stored string (chatroom name) upon completing the command.</t>
+  </si>
+  <si>
+    <t>Uberchat shall format every request from the client as follows: &lt;CHECKSUM&gt; &lt;TIME&gt; &lt;MAJOR COMMAND&gt; &lt;OPTIONAL ARGUMENTS&gt;</t>
+  </si>
+  <si>
+    <t>Uberchat shall use GMT accurate to 1/10th of a millisecond for all time stamps.</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQUUID" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "NICK" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQCHATROOMS" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "NAMECHATROOM" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "SENDTEXT" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQTEXT" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQUSERS" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "JOINCHATROOM" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall compare thestored string against the list of chatrooms and modify the string if nessesary, to make it unique.</t>
+  </si>
+  <si>
+    <t>Uberchat shall add a number, in consecutive order, to any name that needs to be modifies for uniqueness.</t>
+  </si>
+  <si>
+    <t>UBERCHAT REQUIERMENTS LIST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Zapf Dingbats"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Zapf Dingbats"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -126,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,17 +232,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -487,294 +652,545 @@
     <col min="4" max="4" width="113.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30">
-      <c r="A19">
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
-      <c r="A20">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30">
-      <c r="A21">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="30">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+    <row r="42" spans="1:4" ht="30">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="43" spans="1:4" ht="30">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Requirements_table.xlsx
+++ b/Requirements_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27980" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5360" yWindow="440" windowWidth="27980" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,13 +153,13 @@
     <t>Uberchat shall have a button in the GUI which will trigger a command called "JOINCHATROOM" to execute.</t>
   </si>
   <si>
-    <t>Uberchat shall compare thestored string against the list of chatrooms and modify the string if nessesary, to make it unique.</t>
-  </si>
-  <si>
     <t>Uberchat shall add a number, in consecutive order, to any name that needs to be modifies for uniqueness.</t>
   </si>
   <si>
     <t>UBERCHAT REQUIERMENTS LIST</t>
+  </si>
+  <si>
+    <t>Uberchat shall compare the stored string against the list of chatrooms and modify the string if nessesary, to make it unique.</t>
   </si>
 </sst>
 </file>
@@ -257,8 +257,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -291,7 +293,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -301,6 +303,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -310,6 +313,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -654,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -739,7 +743,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -854,7 +858,8 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -889,10 +894,10 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
@@ -901,10 +906,10 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
       </c>
@@ -913,10 +918,10 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
@@ -937,10 +942,10 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
@@ -961,10 +966,10 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -973,10 +978,10 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
@@ -985,22 +990,22 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
@@ -1021,10 +1026,10 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1033,10 +1038,10 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1057,10 +1062,10 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
@@ -1105,10 +1110,10 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D39" s="2" t="s">
         <v>29</v>
       </c>
@@ -1129,10 +1134,10 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D41" s="2" t="s">
         <v>30</v>
       </c>
@@ -1141,10 +1146,10 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="1"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>31</v>
       </c>
@@ -1153,10 +1158,10 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="1"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D43" s="2" t="s">
         <v>32</v>
       </c>

--- a/Requirements_table.xlsx
+++ b/Requirements_table.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="440" windowWidth="27980" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,9 @@
     <t>Uberchat shall be written in C++11.</t>
   </si>
   <si>
-    <t>Uberchat server shall be able to send, via TCP, a message to all clients in less than 100ms from receiving the message from a client.</t>
-  </si>
-  <si>
     <t>Uberchat shall use TCP for all communication to and from server and clients.</t>
   </si>
   <si>
-    <t>Uberchat shall communicate in a requests and response format between the client and server respectably.</t>
-  </si>
-  <si>
     <t>Uberchat shall use a checksum to verify all data integrity.</t>
   </si>
   <si>
@@ -51,54 +45,9 @@
     <t>Uberchat shall use ASCII for all TCP data trasfers between clients and server.</t>
   </si>
   <si>
-    <t>Uberchat shall have a CRC-32 checksum and a time included in every request from the clients and every reply from the server.</t>
-  </si>
-  <si>
-    <t>Uberchat shall not allow the use of commas (",") in any name including but not limited to chatroom names and nicknames.</t>
-  </si>
-  <si>
-    <t>Uberchat shall use comma delimited lists for all lists including but not limited to user list and chatroom list.</t>
-  </si>
-  <si>
-    <t>Uberchat shall use double quotes (" ") for any spaces and delimiters to be used as part of a name/string.</t>
-  </si>
-  <si>
-    <t>Uberchat shall use a NULL ("/0") character to terminate every command and reply as well as any strings.</t>
-  </si>
-  <si>
-    <t>Uberchat shall make use of a command named "REQUUID" which will trigger the server to reply with a unique UUID.</t>
-  </si>
-  <si>
     <t>Uberchat shall not allow any client to connect/join any chatroom without a UUID.</t>
   </si>
   <si>
-    <t>Uberchat shall echo back the stored string associated with the client that sent the command.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uberchat shall make use of a command named " REQCHATROOMS" which will trigger the server to send, via TCP, a list of all available chatrooms if any. </t>
-  </si>
-  <si>
-    <t>Uberchat shall make use of a command named "NAMECHATROOM" which will trigger the server to store all subsequent charaters, up until the terminating charater, and create a chatroom named after the stored string.</t>
-  </si>
-  <si>
-    <t>Uberchat shall add newly created chatrooms to the chatroom list upon executing the "NAMECHATROOM" command.</t>
-  </si>
-  <si>
-    <t>Uberchat server shall echo the stored string (chatroom name) back to the client that requested the "NAMECHATROOM" command.</t>
-  </si>
-  <si>
-    <t>Uberchat shall make use of a command named "SENDTEXT" that will trigger the server to store all subsequent characters, up until the terminating charater and echo the stored string to all available clients in the chatroom.</t>
-  </si>
-  <si>
-    <t>Uberchat shall compare the clients nickname against the list of used nicknames and modify the nickname, if nessesary, to make it unique. This will be done everytime a user changes or creates a new nick.</t>
-  </si>
-  <si>
-    <t>Uberchat shall make use of a command named "NICK" which will trigger the server to store all subsequent characters, up until the    terminating character, and associate that nickname with the clients UUID.</t>
-  </si>
-  <si>
-    <t>Uberchat shall echo the count/number of characters, including any spaces and excluding the terminating charater, in the stored string back to the client that requested the "SENDTEXT" command.</t>
-  </si>
-  <si>
     <t>Uberchat shall make use of a command named "REQTEXT" that will trigger the server to echo all text in the buffer back to the client that requested the "REQTEXT" command.</t>
   </si>
   <si>
@@ -129,44 +78,126 @@
     <t>✓</t>
   </si>
   <si>
-    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQUUID" to execute.</t>
-  </si>
-  <si>
-    <t>Uberchat shall have a button in the GUI which will trigger a command called "NICK" to execute.</t>
-  </si>
-  <si>
-    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQCHATROOMS" to execute.</t>
-  </si>
-  <si>
-    <t>Uberchat shall have a button in the GUI which will trigger a command called "NAMECHATROOM" to execute.</t>
-  </si>
-  <si>
-    <t>Uberchat shall have a button in the GUI which will trigger a command called "SENDTEXT" to execute.</t>
-  </si>
-  <si>
-    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQTEXT" to execute.</t>
-  </si>
-  <si>
-    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQUSERS" to execute.</t>
-  </si>
-  <si>
     <t>Uberchat shall have a button in the GUI which will trigger a command called "JOINCHATROOM" to execute.</t>
   </si>
   <si>
-    <t>Uberchat shall add a number, in consecutive order, to any name that needs to be modifies for uniqueness.</t>
-  </si>
-  <si>
     <t>UBERCHAT REQUIERMENTS LIST</t>
   </si>
   <si>
-    <t>Uberchat shall compare the stored string against the list of chatrooms and modify the string if nessesary, to make it unique.</t>
+    <t>Uberchat shall communicate in a requests and response format between the client and
+server respectably.</t>
+  </si>
+  <si>
+    <t>Uberchat server shall be able to send, via TCP, a message to all clients in less than 100ms 
+from receiving the message from a client.</t>
+  </si>
+  <si>
+    <t>Uberchat shall add a number, in consecutive order, to any name that needs to be modifies 
+for uniqueness.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a CRC-32 checksum and a time included in every request from the 
+clients and every reply from the server.</t>
+  </si>
+  <si>
+    <t>Uberchat shall not allow the use of commas (",") in any name including but not limited 
+to chatroom names and nicknames.</t>
+  </si>
+  <si>
+    <t>Uberchat shall use comma delimited lists for all lists including but not limited to user list 
+and chatroom list.</t>
+  </si>
+  <si>
+    <t>Uberchat shall use double quotes (" ") for any spaces and delimiters to be used as part of 
+a name/string.</t>
+  </si>
+  <si>
+    <t>Uberchat shall use a NULL ("/0") character to terminate every command and reply as well
+as any strings.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQUUID"
+ to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "REQUUID" which will trigger the server
+ to reply with a unique UUID.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "NICK" to 
+execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "NICK" which will trigger the server to
+store all subsequent characters, up until the terminating character, and associate that 
+nickname with the clients UUID.</t>
+  </si>
+  <si>
+    <t>Uberchat shall compare the clients nickname against the list of used nicknames and 
+modify the nickname, if nessesary, to make it unique. This will be done everytime a user 
+changes or creates a new nick.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called 
+"REQCHATROOMS" to execute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uberchat shall make use of a command named " REQCHATROOMS" which will trigger 
+the server to send, via TCP, a list of all available chatrooms if any. </t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called 
+"NAMECHATROOM" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall add newly created chatrooms to the chatroom list upon executing the 
+"NAMECHATROOM" command.</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "NAMECHATROOM" which will trigger 
+the server to store all subsequent charaters, up until the terminating charater, and 
+create a chatroom named after the stored string.</t>
+  </si>
+  <si>
+    <t>Uberchat shall compare the stored string against the list of chatrooms and modify 
+the string if nessesary, to make it unique.</t>
+  </si>
+  <si>
+    <t>Uberchat server shall echo the stored string (chatroom name) back to the client
+that requested the "NAMECHATROOM" command.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called 
+"SENDTEXT" to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall make use of a command named "SENDTEXT" that will trigger the server to 
+store all subsequent characters, up until the terminating charater and echo the stored 
+string to all available clients in the chatroom.</t>
+  </si>
+  <si>
+    <t>Uberchat shall echo the count/number of characters, including any spaces and excluding
+ the terminating charater, in the stored string back to the client that requested the 
+"SENDTEXT" command.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQTEXT" 
+to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall have a button in the GUI which will trigger a command called "REQUSERS" 
+to execute.</t>
+  </si>
+  <si>
+    <t>Uberchat shall echo back the stored string associated with the client that sent the 
+command.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +244,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -280,7 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -288,9 +325,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -645,24 +687,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="113.33203125" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
@@ -679,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
@@ -691,23 +733,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -715,35 +757,35 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -751,11 +793,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -763,11 +805,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -775,95 +817,95 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -871,71 +913,71 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -944,118 +986,118 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30">
+        <v>18</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
@@ -1064,10 +1106,10 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1075,83 +1117,83 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30">
+        <v>18</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30">
+        <v>18</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="30">
@@ -1160,22 +1202,22 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1183,19 +1225,20 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
